--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="220200" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="222990" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="755">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -8081,7 +8081,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8135,7 +8135,9 @@
       <c r="A3" s="53" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="40" t="s">
         <v>676</v>
       </c>
@@ -8153,7 +8155,9 @@
       <c r="A4" s="53" t="s">
         <v>679</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="40" t="s">
         <v>680</v>
       </c>
@@ -8171,7 +8175,9 @@
       <c r="A5" s="53" t="s">
         <v>751</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" s="40" t="s">
         <v>346</v>
       </c>
@@ -8187,7 +8193,9 @@
       <c r="A6" s="53" t="s">
         <v>681</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="C6" s="40" t="s">
         <v>683</v>
       </c>
@@ -8205,7 +8213,9 @@
       <c r="A7" s="53" t="s">
         <v>682</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="C7" s="40" t="s">
         <v>683</v>
       </c>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="222990" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="229500" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="757">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -265,15 +265,6 @@
   </si>
   <si>
     <t>P3</t>
-  </si>
-  <si>
-    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/Brands/Playboard/T-Shirt-Men-Playboard-Raster-SS/p/300046037</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>Size XL, £26.68  99</t>
   </si>
   <si>
     <t>title</t>
@@ -1369,9 +1360,6 @@
     <t>P6</t>
   </si>
   <si>
-    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/Brands/Toko/Snowboard-Ski-Tool-Toko-Waxremover-HC3-500ml/p/45572?site=apparel-uk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guest, verify the PDP basics </t>
   </si>
   <si>
@@ -1404,21 +1392,9 @@
     <t>reviews</t>
   </si>
   <si>
-    <t>Summary: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
-  </si>
-  <si>
-    <t>£12.86</t>
-  </si>
-  <si>
-    <t>Description: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
-    <t>Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -1428,18 +1404,12 @@
     <t>300613491</t>
   </si>
   <si>
-    <t>300046037</t>
-  </si>
-  <si>
     <t>300046592</t>
   </si>
   <si>
     <t>Seizure Satchel brown Uni</t>
   </si>
   <si>
-    <t>T-Shirt Men Playboard Flower SS black M</t>
-  </si>
-  <si>
     <t>118514</t>
   </si>
   <si>
@@ -1449,14 +1419,6 @@
     <t>Shades Fox The Duncan polished black grey</t>
   </si>
   <si>
-    <t>id
-name
-price
-summary
-desc
-stock level indicator add to cart button</t>
-  </si>
-  <si>
     <t>500 error page</t>
   </si>
   <si>
@@ -1599,9 +1561,6 @@
   </si>
   <si>
     <t>3755219</t>
-  </si>
-  <si>
-    <t>45572</t>
   </si>
   <si>
     <t>$48.00</t>
@@ -2363,9 +2322,6 @@
     <t>P16</t>
   </si>
   <si>
-    <t>https://dev.tommybahama.com/en/Rockin%27-the-Boat-Sunglasses/p/TB6033-185</t>
-  </si>
-  <si>
     <t>Rockin' the Boat Sunglasses</t>
   </si>
   <si>
@@ -2388,6 +2344,75 @@
   </si>
   <si>
     <t>jocacek@gmail.com</t>
+  </si>
+  <si>
+    <t>https://qa-kiosk.tommybahama.com/en/Rockin%27-the-Boat-Sunglasses/p/TB6033-185</t>
+  </si>
+  <si>
+    <t>$79.50 was $159.00</t>
+  </si>
+  <si>
+    <t>id
+name
+price
+summary
+desc
+ add to cart button</t>
+  </si>
+  <si>
+    <t>PRODUCT DESCRIPTION
+Metal frame with nose pads and leather details
+Plastic polarized lenses
+Eye size: 61
+Bridge / temple size: 13 - 140
+Fits medium to large faces
+100% UVA &amp; UVB protections
+TB6033
+Standard Fit</t>
+  </si>
+  <si>
+    <t>3755220</t>
+  </si>
+  <si>
+    <t>https://www.tommybahama.com/en/Flip-Tide-Reversible-IslandZone%C2%AE-T-Shirt/p/T218029-3044</t>
+  </si>
+  <si>
+    <t>T218029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $79.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Description
+Have twice the fun in the sun with this reversible tee featuring textured slub fabric, accent stitching and cooling 37.5® Technology.
+    57% modal, 43% 37.5® Polyester.
+    Machine wash cold on gentle cycle, tumble dry low. Can also be dry cleaned.
+    Allover tonal accent stitching.
+    Slubbed fabric.
+    Reversible.
+    Our super-soft fabric uses 37.5® Technology with active particles to allow for high–performance moisture evaporation.
+    37.5® Technology is derived from coconut shells and volcanic sand—it uses the very elements of island life to keep you cool.
+    Imported.
+    T218029
+</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>https://qa-kiosk.tommybahama.com/en/Big-%26-Tall-Tiki-Palms-Camp-Shirt/p/BT35173-1184</t>
+  </si>
+  <si>
+    <t>Big &amp; Tall Tiki Palms Camp Shirt</t>
+  </si>
+  <si>
+    <t>BT35173</t>
+  </si>
+  <si>
+    <t>1X x BG</t>
+  </si>
+  <si>
+    <t>Orange</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2584,19 +2609,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -2614,7 +2626,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2803,9 +2815,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2829,12 +2838,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2881,17 +2884,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3258,7 +3261,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>62</v>
@@ -3284,11 +3287,11 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>15</v>
@@ -3302,13 +3305,13 @@
       <c r="G2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="87" t="s">
-        <v>603</v>
+      <c r="H2" s="84" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="23" t="s">
@@ -3327,12 +3330,12 @@
         <v>48</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="23" t="s">
@@ -3351,12 +3354,12 @@
         <v>47</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
@@ -3375,12 +3378,12 @@
         <v>47</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="23" t="s">
@@ -3399,12 +3402,12 @@
         <v>48</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="23" t="s">
@@ -3423,12 +3426,12 @@
         <v>47</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="A8" s="19" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
@@ -3447,12 +3450,12 @@
         <v>47</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="A9" s="19" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
@@ -3471,12 +3474,12 @@
         <v>48</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="A10" s="19" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
@@ -3495,12 +3498,12 @@
         <v>47</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
@@ -3519,12 +3522,12 @@
         <v>47</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
@@ -3543,12 +3546,12 @@
         <v>48</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
@@ -3567,12 +3570,12 @@
         <v>47</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
@@ -3591,12 +3594,12 @@
         <v>47</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
@@ -3615,12 +3618,12 @@
         <v>48</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
@@ -3639,12 +3642,12 @@
         <v>47</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
@@ -3663,12 +3666,12 @@
         <v>47</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
@@ -3687,12 +3690,12 @@
         <v>48</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
@@ -3711,12 +3714,12 @@
         <v>47</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
@@ -3735,12 +3738,12 @@
         <v>47</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="23" t="s">
@@ -3759,12 +3762,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="23" t="s">
@@ -3783,12 +3786,12 @@
         <v>47</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="23" t="s">
@@ -3807,12 +3810,12 @@
         <v>47</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="23" t="s">
@@ -3831,12 +3834,12 @@
         <v>48</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="23" t="s">
@@ -3855,12 +3858,12 @@
         <v>47</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="23" t="s">
@@ -3879,12 +3882,12 @@
         <v>47</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="23" t="s">
@@ -3903,12 +3906,12 @@
         <v>48</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="23" t="s">
@@ -3927,12 +3930,12 @@
         <v>47</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="23" t="s">
@@ -3951,12 +3954,12 @@
         <v>47</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="23" t="s">
@@ -3975,12 +3978,12 @@
         <v>48</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="23" t="s">
@@ -3999,12 +4002,12 @@
         <v>47</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="23" t="s">
@@ -4023,12 +4026,12 @@
         <v>47</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="23" t="s">
@@ -4047,12 +4050,12 @@
         <v>48</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="23" t="s">
@@ -4071,12 +4074,12 @@
         <v>47</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="23" t="s">
@@ -4095,12 +4098,12 @@
         <v>47</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="23" t="s">
@@ -4119,12 +4122,12 @@
         <v>48</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="23" t="s">
@@ -4143,12 +4146,12 @@
         <v>47</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="23" t="s">
@@ -4167,12 +4170,12 @@
         <v>47</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>61</v>
@@ -4193,12 +4196,12 @@
         <v>47</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="23" t="s">
@@ -4217,12 +4220,12 @@
         <v>47</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="23" t="s">
@@ -4240,13 +4243,13 @@
       <c r="G41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="93" t="s">
-        <v>712</v>
+      <c r="H41" s="90" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="23" t="s">
@@ -4265,12 +4268,12 @@
         <v>47</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="23" t="s">
@@ -4289,12 +4292,12 @@
         <v>47</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="23" t="s">
@@ -4313,12 +4316,12 @@
         <v>47</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="19" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="23" t="s">
@@ -4337,12 +4340,12 @@
         <v>47</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="23" t="s">
@@ -4361,12 +4364,12 @@
         <v>47</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="23" t="s">
@@ -4385,12 +4388,12 @@
         <v>47</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="23" t="s">
@@ -4409,16 +4412,16 @@
         <v>47</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="19" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>15</v>
@@ -4433,16 +4436,16 @@
         <v>47</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>15</v>
@@ -4457,16 +4460,16 @@
         <v>47</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="19" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>15</v>
@@ -4481,16 +4484,16 @@
         <v>47</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="19" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="23" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>15</v>
@@ -4505,16 +4508,16 @@
         <v>47</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="19" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="23" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>15</v>
@@ -4529,16 +4532,16 @@
         <v>47</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="23" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>15</v>
@@ -4553,16 +4556,16 @@
         <v>47</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="19" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="23" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>15</v>
@@ -4577,16 +4580,16 @@
         <v>47</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="19" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="23" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>15</v>
@@ -4601,16 +4604,16 @@
         <v>47</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="19" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="23" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>15</v>
@@ -4625,16 +4628,16 @@
         <v>47</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="23" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>15</v>
@@ -4649,16 +4652,16 @@
         <v>47</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="19" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="23" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>15</v>
@@ -4673,16 +4676,16 @@
         <v>47</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="19" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="23" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>15</v>
@@ -4697,16 +4700,16 @@
         <v>47</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="19" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="23" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>15</v>
@@ -4721,7 +4724,7 @@
         <v>47</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>62</v>
@@ -4787,19 +4790,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>15</v>
@@ -4811,27 +4814,27 @@
         <v>47</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>15</v>
@@ -4843,10 +4846,10 @@
         <v>47</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +4878,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>62</v>
@@ -4887,51 +4890,51 @@
         <v>17</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="61" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>372</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -4969,7 +4972,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>62</v>
@@ -4984,104 +4987,104 @@
         <v>16</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="64" t="s">
         <v>377</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>318</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>210</v>
+        <v>360</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>207</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="85"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H3" s="2">
         <v>1234567</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="82"/>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="43" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>565</v>
+        <v>363</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>553</v>
       </c>
       <c r="H4" s="2">
         <v>1234567</v>
       </c>
-      <c r="I4" s="85" t="s">
-        <v>361</v>
+      <c r="I4" s="82" t="s">
+        <v>358</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -5089,252 +5092,252 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="37" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H5" s="2">
         <v>1234567</v>
       </c>
-      <c r="I5" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="J5" s="85" t="s">
+      <c r="I5" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="43" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>564</v>
+        <v>200</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>552</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="2">
         <v>1234567</v>
       </c>
-      <c r="I6" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85" t="s">
-        <v>387</v>
+      <c r="I6" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82" t="s">
+        <v>384</v>
       </c>
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="43" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="I7" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="60" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H8" s="2">
         <v>1234567</v>
       </c>
-      <c r="I8" s="85" t="s">
-        <v>362</v>
+      <c r="I8" s="82" t="s">
+        <v>359</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="85"/>
+      <c r="K8" s="82"/>
       <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="43" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H9" s="2">
         <v>1234567</v>
       </c>
-      <c r="I9" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85" t="s">
-        <v>394</v>
+      <c r="I9" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
+        <v>391</v>
       </c>
       <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="43" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H10" s="2">
         <v>1234567</v>
       </c>
-      <c r="I10" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85" t="s">
-        <v>394</v>
+      <c r="I10" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82" t="s">
+        <v>391</v>
       </c>
       <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="43" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H11" s="2">
         <v>874531324</v>
       </c>
-      <c r="I11" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
+      <c r="I11" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
       <c r="L11" s="60" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="43" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="H12" s="2">
         <v>1234567</v>
       </c>
-      <c r="I12" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="K12" s="85"/>
+      <c r="I12" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="J12" s="82" t="s">
+        <v>398</v>
+      </c>
+      <c r="K12" s="82"/>
       <c r="L12" s="60"/>
     </row>
   </sheetData>
@@ -5362,7 +5365,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>62</v>
@@ -5374,38 +5377,38 @@
         <v>17</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E3" s="60">
         <v>500</v>
@@ -5441,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>62</v>
@@ -5467,113 +5470,113 @@
       <c r="I1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="75" t="s">
-        <v>318</v>
+      <c r="J1" s="74" t="s">
+        <v>315</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
       <c r="A2" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>494</v>
-      </c>
-      <c r="E2" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="73" t="s">
+      <c r="H2" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
       <c r="A3" s="53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>491</v>
-      </c>
-      <c r="E3" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="73" t="s">
+      <c r="H3" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
       <c r="A4" s="53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>488</v>
-      </c>
-      <c r="E4" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="73" t="s">
+      <c r="H4" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K4" s="63" t="s">
         <v>1</v>
@@ -5581,34 +5584,34 @@
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>486</v>
-      </c>
-      <c r="E5" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="73" t="s">
+      <c r="H5" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K5" s="63" t="s">
         <v>2</v>
@@ -5616,352 +5619,352 @@
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>484</v>
-      </c>
-      <c r="E6" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="73" t="s">
+      <c r="H6" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>481</v>
-      </c>
-      <c r="E7" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="73" t="s">
+      <c r="H7" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="73" t="s">
+      <c r="H8" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
       <c r="A9" s="53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="E9" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" s="73" t="s">
+      <c r="H9" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45">
       <c r="A10" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="E10" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I10" s="73" t="s">
+      <c r="H10" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45">
       <c r="A11" s="53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="E11" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="K11" s="27" t="s">
         <v>457</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
       <c r="A12" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="E12" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I12" s="73" t="s">
+      <c r="H12" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
       <c r="A13" s="53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="E13" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I13" s="73" t="s">
+      <c r="H13" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
       <c r="A14" s="53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="E14" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I14" s="73" t="s">
+      <c r="H14" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
       <c r="A15" s="53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="E15" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I15" s="73" t="s">
+      <c r="H15" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -5998,7 +6001,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30">
       <c r="A1" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>62</v>
@@ -6028,21 +6031,21 @@
         <v>8</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
-      <c r="A2" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="82" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>198</v>
+      <c r="C2" s="79" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>195</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>5</v>
@@ -6050,19 +6053,19 @@
       <c r="F2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>331</v>
-      </c>
-      <c r="K2" s="81">
+      <c r="H2" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="K2" s="78">
         <v>0</v>
       </c>
     </row>
@@ -6103,7 +6106,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>62</v>
@@ -6118,42 +6121,42 @@
         <v>16</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="L1" s="41" t="s">
         <v>404</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F2" s="7">
         <v>1234567</v>
@@ -6171,19 +6174,19 @@
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F3" s="7">
         <v>1234567</v>
@@ -6195,7 +6198,7 @@
         <v>12345678</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
@@ -6203,19 +6206,19 @@
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="7">
@@ -6225,29 +6228,29 @@
         <v>12345678</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K4" s="60"/>
       <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7">
         <v>12345678</v>
@@ -6259,29 +6262,29 @@
         <v>12345678</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7">
         <v>1234567</v>
@@ -6291,29 +6294,29 @@
         <v>12345678</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7">
         <v>1234567</v>
@@ -6325,29 +6328,29 @@
         <v>12345678</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J7" s="60"/>
       <c r="K7" s="60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="30">
       <c r="A8" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7">
         <v>1234567</v>
@@ -6357,29 +6360,29 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7">
         <v>1234567</v>
@@ -6391,29 +6394,29 @@
         <v>123</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7">
         <v>1234567</v>
@@ -6425,31 +6428,31 @@
         <v>123</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J10" s="60"/>
       <c r="K10" s="60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
       <c r="A11" s="43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7">
         <v>1234567</v>
@@ -6461,12 +6464,12 @@
         <v>123456798</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="60"/>
       <c r="L11" s="60" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6499,7 +6502,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>62</v>
@@ -6511,88 +6514,88 @@
         <v>17</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="88" t="s">
-        <v>318</v>
+      <c r="G1" s="85" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="120">
       <c r="A2" s="53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>425</v>
-      </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="89"/>
+        <v>422</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" ht="45">
       <c r="A3" s="53" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="90"/>
+        <v>422</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:7" ht="120">
       <c r="A4" s="53" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="89"/>
+        <v>202</v>
+      </c>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="A5" s="53" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>203</v>
+      </c>
+      <c r="G5" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6622,7 +6625,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>62</v>
@@ -6633,104 +6636,104 @@
       <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>663</v>
+      <c r="E1" s="85" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>669</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>664</v>
+        <v>657</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>670</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>665</v>
+        <v>658</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>671</v>
-      </c>
-      <c r="E4" s="89" t="s">
-        <v>666</v>
+        <v>659</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="53" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>688</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>664</v>
+        <v>676</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="53" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="53" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>667</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>665</v>
+        <v>655</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="53" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="53" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>668</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>666</v>
+        <v>656</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +6764,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>62</v>
@@ -6772,40 +6775,40 @@
       <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>663</v>
+      <c r="E1" s="85" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>669</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>687</v>
+        <v>657</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>688</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>687</v>
+        <v>676</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6843,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>62</v>
@@ -6875,19 +6878,19 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A2" s="19" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>15</v>
@@ -6903,16 +6906,16 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="13" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A3" s="19" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>65</v>
@@ -6934,12 +6937,12 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="38" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A4" s="19" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="22" t="s">
@@ -6965,21 +6968,21 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="38" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A5" s="19" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>73</v>
@@ -6998,19 +7001,19 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="38" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A6" s="19" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>73</v>
@@ -7029,19 +7032,19 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="38" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A7" s="19" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>73</v>
@@ -7060,19 +7063,19 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="38" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>73</v>
@@ -7091,19 +7094,19 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="38" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A9" s="19" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>73</v>
@@ -7122,19 +7125,19 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="38" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A10" s="19" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>73</v>
@@ -7153,19 +7156,19 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="38" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A11" s="19" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>73</v>
@@ -7184,19 +7187,19 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="38" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="19" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>73</v>
@@ -7215,19 +7218,19 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="38" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="19" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>73</v>
@@ -7246,19 +7249,19 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="38" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="19" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>73</v>
@@ -7280,14 +7283,14 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="19" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>73</v>
@@ -7309,14 +7312,14 @@
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="19" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>73</v>
@@ -7338,14 +7341,14 @@
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="19" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>73</v>
@@ -7367,16 +7370,16 @@
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="19" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>73</v>
@@ -7398,14 +7401,14 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="19" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>73</v>
@@ -7427,11 +7430,11 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="19" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>65</v>
@@ -7453,16 +7456,16 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="38" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="19" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>65</v>
@@ -7484,12 +7487,12 @@
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="38" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="19" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
@@ -7515,19 +7518,19 @@
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="38" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
       <c r="A23" s="19" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>73</v>
@@ -7546,19 +7549,19 @@
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="38" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="19" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>73</v>
@@ -7577,19 +7580,19 @@
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="38" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
       <c r="A25" s="19" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>73</v>
@@ -7608,19 +7611,19 @@
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="38" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" s="19" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>73</v>
@@ -7639,19 +7642,19 @@
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="38" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
       <c r="A27" s="19" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>73</v>
@@ -7670,19 +7673,19 @@
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="38" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" s="19" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>73</v>
@@ -7701,19 +7704,19 @@
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="38" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
       <c r="A29" s="19" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>73</v>
@@ -7732,19 +7735,19 @@
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="38" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="19" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>73</v>
@@ -7763,19 +7766,19 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="38" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="A31" s="19" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>73</v>
@@ -7794,19 +7797,19 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="38" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="19" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>73</v>
@@ -7828,14 +7831,14 @@
     </row>
     <row r="33" spans="1:11" ht="60">
       <c r="A33" s="19" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>73</v>
@@ -7857,14 +7860,14 @@
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="19" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>73</v>
@@ -7886,16 +7889,16 @@
     </row>
     <row r="35" spans="1:11" ht="60">
       <c r="A35" s="19" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>73</v>
@@ -7917,14 +7920,14 @@
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="19" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>73</v>
@@ -7946,14 +7949,14 @@
     </row>
     <row r="37" spans="1:11" ht="60">
       <c r="A37" s="19" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>73</v>
@@ -7975,14 +7978,14 @@
     </row>
     <row r="38" spans="1:11" ht="60">
       <c r="A38" s="19" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>72</v>
@@ -8004,17 +8007,17 @@
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="19" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>51</v>
@@ -8033,16 +8036,16 @@
     </row>
     <row r="40" spans="1:11" ht="60">
       <c r="A40" s="19" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
@@ -8060,8 +8063,8 @@
         <v>47</v>
       </c>
       <c r="J40" s="24"/>
-      <c r="K40" s="92" t="s">
-        <v>627</v>
+      <c r="K40" s="89" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -8080,7 +8083,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -8095,7 +8098,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="50" customFormat="1">
       <c r="A1" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>62</v>
@@ -8110,120 +8113,120 @@
         <v>16</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="53" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>674</v>
+        <v>661</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>662</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="F2" s="91"/>
+        <v>741</v>
+      </c>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="53" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>676</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>677</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>678</v>
+        <v>664</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>665</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>666</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>680</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>199</v>
+        <v>668</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>196</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="53" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="98"/>
+        <v>343</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="94"/>
       <c r="F5" s="13" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="53" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>200</v>
+        <v>672</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>197</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="53" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>678</v>
+        <v>673</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>666</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>0</v>
@@ -8260,10 +8263,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>42</v>
@@ -8272,21 +8275,21 @@
         <v>41</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>3</v>
@@ -8295,7 +8298,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>52</v>
@@ -8303,13 +8306,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>3</v>
@@ -8318,21 +8321,21 @@
         <v>4</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>3</v>
@@ -8341,21 +8344,21 @@
         <v>4</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>3</v>
@@ -8364,21 +8367,21 @@
         <v>4</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>3</v>
@@ -8387,21 +8390,21 @@
         <v>4</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>3</v>
@@ -8410,21 +8413,21 @@
         <v>4</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>3</v>
@@ -8433,21 +8436,21 @@
         <v>4</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>3</v>
@@ -8456,21 +8459,21 @@
         <v>4</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>3</v>
@@ -8479,21 +8482,21 @@
         <v>4</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>3</v>
@@ -8502,21 +8505,21 @@
         <v>4</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>3</v>
@@ -8525,21 +8528,21 @@
         <v>4</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>3</v>
@@ -8548,21 +8551,21 @@
         <v>4</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>3</v>
@@ -8571,21 +8574,21 @@
         <v>4</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>3</v>
@@ -8594,21 +8597,21 @@
         <v>4</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>3</v>
@@ -8617,21 +8620,21 @@
         <v>4</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>3</v>
@@ -8640,21 +8643,21 @@
         <v>4</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>3</v>
@@ -8663,21 +8666,21 @@
         <v>4</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>3</v>
@@ -8686,21 +8689,21 @@
         <v>4</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>3</v>
@@ -8709,21 +8712,21 @@
         <v>4</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>3</v>
@@ -8732,21 +8735,21 @@
         <v>4</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>3</v>
@@ -8755,21 +8758,21 @@
         <v>4</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>3</v>
@@ -8778,21 +8781,21 @@
         <v>4</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>3</v>
@@ -8801,21 +8804,21 @@
         <v>4</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>3</v>
@@ -8824,21 +8827,21 @@
         <v>4</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>3</v>
@@ -8847,21 +8850,21 @@
         <v>4</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>3</v>
@@ -8870,21 +8873,21 @@
         <v>4</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>3</v>
@@ -8893,21 +8896,21 @@
         <v>4</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>3</v>
@@ -8916,21 +8919,21 @@
         <v>4</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="87" t="s">
-        <v>603</v>
+        <v>97</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>3</v>
@@ -8939,21 +8942,21 @@
         <v>4</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>3</v>
@@ -8962,21 +8965,21 @@
         <v>4</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>3</v>
@@ -8985,21 +8988,21 @@
         <v>4</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>3</v>
@@ -9008,21 +9011,21 @@
         <v>4</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>3</v>
@@ -9031,21 +9034,21 @@
         <v>4</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>3</v>
@@ -9054,21 +9057,21 @@
         <v>4</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>3</v>
@@ -9077,21 +9080,21 @@
         <v>4</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>3</v>
@@ -9100,21 +9103,21 @@
         <v>4</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>3</v>
@@ -9123,21 +9126,21 @@
         <v>4</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>3</v>
@@ -9146,21 +9149,21 @@
         <v>4</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>3</v>
@@ -9169,21 +9172,21 @@
         <v>4</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>3</v>
@@ -9192,21 +9195,21 @@
         <v>4</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>3</v>
@@ -9215,21 +9218,21 @@
         <v>4</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>3</v>
@@ -9238,21 +9241,21 @@
         <v>4</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>3</v>
@@ -9261,21 +9264,21 @@
         <v>4</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>3</v>
@@ -9284,21 +9287,21 @@
         <v>4</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>3</v>
@@ -9307,21 +9310,21 @@
         <v>4</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>3</v>
@@ -9330,21 +9333,21 @@
         <v>4</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>3</v>
@@ -9353,21 +9356,21 @@
         <v>4</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>3</v>
@@ -9376,21 +9379,21 @@
         <v>4</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>3</v>
@@ -9399,21 +9402,21 @@
         <v>4</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>3</v>
@@ -9422,21 +9425,21 @@
         <v>4</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>3</v>
@@ -9445,21 +9448,21 @@
         <v>4</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>3</v>
@@ -9468,21 +9471,21 @@
         <v>4</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>3</v>
@@ -9491,21 +9494,21 @@
         <v>4</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>3</v>
@@ -9514,21 +9517,21 @@
         <v>4</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>3</v>
@@ -9537,21 +9540,21 @@
         <v>4</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>3</v>
@@ -9560,21 +9563,21 @@
         <v>4</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>3</v>
@@ -9583,21 +9586,21 @@
         <v>4</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D59" s="30" t="s">
         <v>3</v>
@@ -9606,21 +9609,21 @@
         <v>4</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>3</v>
@@ -9629,21 +9632,21 @@
         <v>4</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D61" s="30" t="s">
         <v>3</v>
@@ -9652,21 +9655,21 @@
         <v>4</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>3</v>
@@ -9675,21 +9678,21 @@
         <v>4</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D63" s="30" t="s">
         <v>3</v>
@@ -9698,21 +9701,21 @@
         <v>4</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>3</v>
@@ -9721,21 +9724,21 @@
         <v>4</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>3</v>
@@ -9744,21 +9747,21 @@
         <v>4</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="30" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>3</v>
@@ -9767,21 +9770,21 @@
         <v>4</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="30" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>3</v>
@@ -9790,21 +9793,21 @@
         <v>4</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="30" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D68" s="30" t="s">
         <v>3</v>
@@ -9813,21 +9816,21 @@
         <v>4</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="30" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>3</v>
@@ -9836,21 +9839,21 @@
         <v>4</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="93" t="s">
-        <v>712</v>
+        <v>97</v>
+      </c>
+      <c r="G69" s="90" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="30" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>3</v>
@@ -9859,21 +9862,21 @@
         <v>4</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="30" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>3</v>
@@ -9882,21 +9885,21 @@
         <v>4</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="30" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>3</v>
@@ -9905,21 +9908,21 @@
         <v>4</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="30" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D73" s="30" t="s">
         <v>3</v>
@@ -9928,21 +9931,21 @@
         <v>4</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="30" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>3</v>
@@ -9951,21 +9954,21 @@
         <v>4</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="30" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D75" s="30" t="s">
         <v>3</v>
@@ -9974,21 +9977,21 @@
         <v>4</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="30" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D76" s="30" t="s">
         <v>3</v>
@@ -9997,21 +10000,21 @@
         <v>4</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="30" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D77" s="30" t="s">
         <v>3</v>
@@ -10019,11 +10022,11 @@
       <c r="E77" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="99" t="s">
-        <v>753</v>
+      <c r="F77" s="95" t="s">
+        <v>740</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -10041,10 +10044,10 @@
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10055,7 +10058,8 @@
     <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10063,10 +10067,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>8</v>
@@ -10081,19 +10085,19 @@
         <v>13</v>
       </c>
       <c r="H1" s="67" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J1" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L1" s="67" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60">
@@ -10101,12 +10105,12 @@
         <v>5</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" s="75" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -10116,7 +10120,7 @@
         <v>71</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -10129,22 +10133,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>445</v>
+        <v>754</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>74</v>
+        <v>753</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>752</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>75</v>
+        <v>756</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>76</v>
+        <v>755</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -10156,19 +10160,19 @@
       <c r="A4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>748</v>
+      <c r="B4" s="24" t="s">
+        <v>735</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>746</v>
+        <v>734</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>742</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -10178,21 +10182,21 @@
     </row>
     <row r="5" spans="1:12" ht="60">
       <c r="A5" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>144</v>
+        <v>441</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>141</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -10202,87 +10206,115 @@
     </row>
     <row r="6" spans="1:12" ht="60">
       <c r="A6" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-    </row>
-    <row r="7" spans="1:12" ht="75">
+        <v>440</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="135">
       <c r="A7" s="30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>501</v>
+        <v>735</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>426</v>
+        <v>734</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>742</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>437</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="H7" s="27"/>
       <c r="I7" s="24" t="s">
-        <v>438</v>
+        <v>743</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>439</v>
+        <v>745</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75">
       <c r="A8" s="30" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>498</v>
+        <v>488</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>487</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="24" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="285">
+      <c r="A9" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>747</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="L9" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10320,10 +10352,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>28</v>
@@ -10469,7 +10501,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>60</v>
@@ -10484,7 +10516,7 @@
         <v>45</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10498,7 +10530,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>35</v>
@@ -10513,7 +10545,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10527,7 +10559,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>40</v>
@@ -10542,7 +10574,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10556,7 +10588,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>68</v>
@@ -10565,18 +10597,18 @@
         <v>67</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>3</v>
@@ -10585,22 +10617,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -10616,8 +10648,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10633,7 +10665,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>62</v>
@@ -10645,92 +10677,90 @@
         <v>17</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="105">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90">
       <c r="A2" s="43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="69" t="s">
-        <v>427</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="68" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>744</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>431</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="72"/>
+      <c r="C3" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>717</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:7" ht="90">
       <c r="A4" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>429</v>
-      </c>
-      <c r="E4" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>425</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="72" t="s">
-        <v>686</v>
+      <c r="E4" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="71" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>430</v>
-      </c>
-      <c r="E5" s="69" t="s">
+      <c r="C5" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="72"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10764,7 +10794,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>62</v>
@@ -10782,58 +10812,58 @@
         <v>16</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45">
       <c r="A3" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -10841,45 +10871,45 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -10887,70 +10917,70 @@
     </row>
     <row r="6" spans="1:9" ht="30">
       <c r="A6" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -10958,20 +10988,20 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -10979,20 +11009,20 @@
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
@@ -11000,168 +11030,168 @@
     </row>
     <row r="11" spans="1:9" ht="45">
       <c r="A11" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="A12" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="A13" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
       <c r="A14" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" s="53"/>
-      <c r="C15" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>146</v>
+      <c r="C15" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>143</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="94" t="s">
-        <v>211</v>
+        <v>140</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>208</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="95" t="s">
-        <v>274</v>
+      <c r="I15" s="92" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -11169,45 +11199,45 @@
     </row>
     <row r="18" spans="1:9" ht="30">
       <c r="A18" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30">
       <c r="A19" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -11215,70 +11245,70 @@
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -11286,20 +11316,20 @@
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -11307,20 +11337,20 @@
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
@@ -11328,127 +11358,127 @@
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45">
       <c r="A27" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -11488,7 +11518,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>62</v>
@@ -11497,69 +11527,69 @@
         <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="K1" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="O1" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="P1" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="G2" s="44">
         <v>300389093</v>
@@ -11574,7 +11604,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L2" s="47">
         <v>3</v>
@@ -11600,22 +11630,22 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="43" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="G3" s="44">
         <v>300389094</v>
@@ -11630,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L3" s="47">
         <v>2</v>
@@ -11656,22 +11686,22 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="43" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G4" s="44">
         <v>300389095</v>
@@ -11686,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L4" s="47">
         <v>1</v>
@@ -11712,22 +11742,22 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="43" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G5" s="44">
         <v>300389095</v>
@@ -11817,7 +11847,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>62</v>
@@ -11829,39 +11859,39 @@
         <v>17</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>3</v>
@@ -11875,25 +11905,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>364</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>367</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -11901,54 +11931,54 @@
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>358</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>359</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>1</v>
@@ -11957,26 +11987,26 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G6" s="27"/>
-      <c r="H6" s="73" t="s">
-        <v>362</v>
+      <c r="H6" s="72" t="s">
+        <v>359</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55" t="s">
@@ -11985,24 +12015,24 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="73" t="s">
-        <v>362</v>
+      <c r="H7" s="72" t="s">
+        <v>359</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>1</v>
@@ -12013,28 +12043,28 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" s="53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>358</v>
       </c>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
@@ -12069,7 +12099,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30">
       <c r="A1" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>62</v>
@@ -12084,82 +12114,82 @@
         <v>8</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="D2" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>419</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -12196,7 +12226,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="50" customFormat="1">
       <c r="A1" s="56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>62</v>
@@ -12208,109 +12238,109 @@
         <v>17</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="105">
       <c r="A4" s="58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -12353,7 +12383,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>62</v>
@@ -12365,21 +12395,21 @@
         <v>16</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>48</v>
@@ -12387,67 +12417,67 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="53" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>48</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="229500" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="230430" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="756">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -989,9 +989,6 @@
   </si>
   <si>
     <t>Bedford</t>
-  </si>
-  <si>
-    <t>stores</t>
   </si>
   <si>
     <t>PLP with highest price first</t>
@@ -1986,18 +1983,6 @@
     <t>P1
 P2
 P4</t>
-  </si>
-  <si>
-    <t>PLP1</t>
-  </si>
-  <si>
-    <t>PLP2</t>
-  </si>
-  <si>
-    <t>PLP3</t>
-  </si>
-  <si>
-    <t>PLP4</t>
   </si>
   <si>
     <t>QV1</t>
@@ -2413,6 +2398,18 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>PLP-1</t>
+  </si>
+  <si>
+    <t>PLP-2</t>
+  </si>
+  <si>
+    <t>PLP-3</t>
+  </si>
+  <si>
+    <t>PLP-4</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2623,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2753,9 +2750,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3260,25 +3254,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="21" t="s">
@@ -3287,7 +3281,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="23" t="s">
@@ -3305,13 +3299,13 @@
       <c r="G2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="84" t="s">
-        <v>591</v>
+      <c r="H2" s="83" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="23" t="s">
@@ -3330,12 +3324,12 @@
         <v>48</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="23" t="s">
@@ -3354,12 +3348,12 @@
         <v>47</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
@@ -3378,12 +3372,12 @@
         <v>47</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="23" t="s">
@@ -3402,12 +3396,12 @@
         <v>48</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="23" t="s">
@@ -3426,12 +3420,12 @@
         <v>47</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="A8" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
@@ -3450,12 +3444,12 @@
         <v>47</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="A9" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
@@ -3474,12 +3468,12 @@
         <v>48</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="A10" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
@@ -3498,12 +3492,12 @@
         <v>47</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
@@ -3522,12 +3516,12 @@
         <v>47</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
@@ -3546,12 +3540,12 @@
         <v>48</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
@@ -3570,12 +3564,12 @@
         <v>47</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
@@ -3594,12 +3588,12 @@
         <v>47</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
@@ -3618,12 +3612,12 @@
         <v>48</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
@@ -3642,12 +3636,12 @@
         <v>47</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
@@ -3666,12 +3660,12 @@
         <v>47</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
@@ -3690,12 +3684,12 @@
         <v>48</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
@@ -3714,12 +3708,12 @@
         <v>47</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
@@ -3738,12 +3732,12 @@
         <v>47</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="23" t="s">
@@ -3762,12 +3756,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="23" t="s">
@@ -3786,12 +3780,12 @@
         <v>47</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="23" t="s">
@@ -3810,12 +3804,12 @@
         <v>47</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="23" t="s">
@@ -3834,12 +3828,12 @@
         <v>48</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="23" t="s">
@@ -3858,12 +3852,12 @@
         <v>47</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="23" t="s">
@@ -3882,12 +3876,12 @@
         <v>47</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="23" t="s">
@@ -3906,12 +3900,12 @@
         <v>48</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="23" t="s">
@@ -3930,12 +3924,12 @@
         <v>47</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="23" t="s">
@@ -3954,12 +3948,12 @@
         <v>47</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="23" t="s">
@@ -3978,12 +3972,12 @@
         <v>48</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="23" t="s">
@@ -4002,12 +3996,12 @@
         <v>47</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="23" t="s">
@@ -4026,12 +4020,12 @@
         <v>47</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="23" t="s">
@@ -4050,12 +4044,12 @@
         <v>48</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="23" t="s">
@@ -4074,12 +4068,12 @@
         <v>47</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="23" t="s">
@@ -4098,12 +4092,12 @@
         <v>47</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="23" t="s">
@@ -4122,12 +4116,12 @@
         <v>48</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="23" t="s">
@@ -4146,12 +4140,12 @@
         <v>47</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="23" t="s">
@@ -4170,12 +4164,12 @@
         <v>47</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>61</v>
@@ -4196,12 +4190,12 @@
         <v>47</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="23" t="s">
@@ -4220,12 +4214,12 @@
         <v>47</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="23" t="s">
@@ -4243,13 +4237,13 @@
       <c r="G41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="90" t="s">
-        <v>700</v>
+      <c r="H41" s="89" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="23" t="s">
@@ -4268,12 +4262,12 @@
         <v>47</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="23" t="s">
@@ -4292,12 +4286,12 @@
         <v>47</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="23" t="s">
@@ -4316,12 +4310,12 @@
         <v>47</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="19" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="23" t="s">
@@ -4340,12 +4334,12 @@
         <v>47</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="23" t="s">
@@ -4364,12 +4358,12 @@
         <v>47</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="23" t="s">
@@ -4388,12 +4382,12 @@
         <v>47</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="23" t="s">
@@ -4412,12 +4406,12 @@
         <v>47</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="19" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="23" t="s">
@@ -4436,12 +4430,12 @@
         <v>47</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="23" t="s">
@@ -4460,16 +4454,16 @@
         <v>47</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="19" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>15</v>
@@ -4484,16 +4478,16 @@
         <v>47</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="19" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>15</v>
@@ -4508,16 +4502,16 @@
         <v>47</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="19" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="23" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>15</v>
@@ -4532,16 +4526,16 @@
         <v>47</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="23" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>15</v>
@@ -4556,16 +4550,16 @@
         <v>47</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="19" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="23" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>15</v>
@@ -4580,16 +4574,16 @@
         <v>47</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="19" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="23" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>15</v>
@@ -4604,16 +4598,16 @@
         <v>47</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="19" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="23" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>15</v>
@@ -4628,16 +4622,16 @@
         <v>47</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="23" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>15</v>
@@ -4652,16 +4646,16 @@
         <v>47</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="19" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="23" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>15</v>
@@ -4676,16 +4670,16 @@
         <v>47</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="19" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="23" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>15</v>
@@ -4700,16 +4694,16 @@
         <v>47</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="19" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="23" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>15</v>
@@ -4724,7 +4718,7 @@
         <v>47</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -4796,10 +4790,10 @@
         <v>61</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>140</v>
@@ -4807,14 +4801,14 @@
       <c r="F2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>333</v>
+      <c r="H2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>332</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>196</v>
@@ -4828,10 +4822,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>140</v>
@@ -4839,14 +4833,14 @@
       <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>333</v>
+      <c r="H3" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>332</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>195</v>
@@ -4886,11 +4880,11 @@
       <c r="C1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4901,11 +4895,11 @@
         <v>61</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="61" t="s">
-        <v>371</v>
+      <c r="E2" s="60" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4916,11 +4910,11 @@
         <v>61</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4931,10 +4925,10 @@
         <v>61</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -4961,7 +4955,7 @@
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="64" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -4987,104 +4981,104 @@
         <v>16</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>374</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="74" t="s">
-        <v>315</v>
+      <c r="I1" s="73" t="s">
+        <v>314</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="L1" s="63" t="s">
         <v>376</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="82" t="s">
         <v>207</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="62" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>380</v>
+      <c r="G3" s="62" t="s">
+        <v>379</v>
       </c>
       <c r="H3" s="2">
         <v>1234567</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E4" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>553</v>
+      <c r="F4" s="82" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>552</v>
       </c>
       <c r="H4" s="2">
         <v>1234567</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>358</v>
+      <c r="I4" s="81" t="s">
+        <v>357</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -5092,253 +5086,253 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>199</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H5" s="2">
         <v>1234567</v>
       </c>
-      <c r="I5" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J5" s="82" t="s">
+      <c r="I5" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="60"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="83" t="s">
-        <v>552</v>
+      <c r="F6" s="82" t="s">
+        <v>551</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="2">
         <v>1234567</v>
       </c>
-      <c r="I6" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="L6" s="60"/>
+      <c r="I6" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="60" t="s">
-        <v>386</v>
+      <c r="I7" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="59" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>202</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H8" s="2">
         <v>1234567</v>
       </c>
-      <c r="I8" s="82" t="s">
-        <v>359</v>
+      <c r="I8" s="81" t="s">
+        <v>358</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>203</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H9" s="2">
         <v>1234567</v>
       </c>
-      <c r="I9" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="L9" s="60"/>
+      <c r="I9" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>204</v>
       </c>
       <c r="F10" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>548</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>549</v>
       </c>
       <c r="H10" s="2">
         <v>1234567</v>
       </c>
-      <c r="I10" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="L10" s="60"/>
+      <c r="I10" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>205</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H11" s="2">
         <v>874531324</v>
       </c>
-      <c r="I11" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="60" t="s">
-        <v>395</v>
+      <c r="I11" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="59" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>396</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>397</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>206</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H12" s="2">
         <v>1234567</v>
       </c>
-      <c r="I12" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="60"/>
+      <c r="I12" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5373,11 +5367,11 @@
       <c r="C1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="64" t="s">
-        <v>315</v>
+      <c r="E1" s="63" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
@@ -5388,13 +5382,13 @@
         <v>61</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="60" t="s">
         <v>443</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5405,12 +5399,12 @@
         <v>61</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="E3" s="60">
+        <v>441</v>
+      </c>
+      <c r="E3" s="59">
         <v>500</v>
       </c>
     </row>
@@ -5470,501 +5464,501 @@
       <c r="I1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="74" t="s">
-        <v>315</v>
+      <c r="J1" s="73" t="s">
+        <v>314</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="D2" s="72" t="s">
         <v>483</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="71" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="72" t="s">
+      <c r="H2" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="D3" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="72" t="s">
+      <c r="H3" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>479</v>
+        <v>465</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="D4" s="72" t="s">
         <v>477</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="D4" s="71" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="K4" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="K4" s="62" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="D5" s="72" t="s">
         <v>475</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="72" t="s">
+      <c r="H5" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="K5" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="K5" s="62" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="D6" s="72" t="s">
         <v>473</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="D6" s="71" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="72" t="s">
+      <c r="H6" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="D7" s="72" t="s">
         <v>470</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="71" t="s">
+        <v>469</v>
+      </c>
+      <c r="E7" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="72" t="s">
+      <c r="H7" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60">
+      <c r="A8" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60">
-      <c r="A8" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="72" t="s">
+      <c r="H8" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="E9" s="73" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I9" s="72" t="s">
+      <c r="H9" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="E10" s="73" t="s">
+        <v>460</v>
+      </c>
+      <c r="E10" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I10" s="72" t="s">
+      <c r="H10" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="E11" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="73" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I12" s="72" t="s">
+      <c r="H12" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I12" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="E13" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I13" s="72" t="s">
+      <c r="H13" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="E14" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I14" s="72" t="s">
+      <c r="H14" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45">
+      <c r="A15" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="K14" s="27" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45">
-      <c r="A15" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="72" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -6031,20 +6025,20 @@
         <v>8</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="78" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" s="79" t="s">
         <v>195</v>
       </c>
       <c r="E2" s="31" t="s">
@@ -6053,19 +6047,19 @@
       <c r="F2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="78">
+      <c r="H2" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="K2" s="77">
         <v>0</v>
       </c>
     </row>
@@ -6121,25 +6115,25 @@
         <v>16</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>403</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6150,10 +6144,10 @@
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>196</v>
@@ -6180,10 +6174,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>197</v>
@@ -6197,11 +6191,11 @@
       <c r="H3" s="7">
         <v>12345678</v>
       </c>
-      <c r="I3" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="30">
@@ -6212,28 +6206,28 @@
         <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="7">
         <v>12345678</v>
       </c>
       <c r="H4" s="7">
         <v>12345678</v>
       </c>
-      <c r="I4" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="K4" s="60"/>
+      <c r="I4" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="59"/>
       <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="30">
@@ -6244,10 +6238,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>196</v>
@@ -6261,13 +6255,13 @@
       <c r="H5" s="7">
         <v>12345678</v>
       </c>
-      <c r="I5" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="K5" s="60"/>
+      <c r="I5" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="59"/>
       <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="30">
@@ -6278,10 +6272,10 @@
         <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>197</v>
@@ -6293,12 +6287,12 @@
       <c r="H6" s="7">
         <v>12345678</v>
       </c>
-      <c r="I6" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
-        <v>411</v>
+      <c r="I6" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
+        <v>410</v>
       </c>
       <c r="L6" s="44"/>
     </row>
@@ -6310,10 +6304,10 @@
         <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>198</v>
@@ -6327,12 +6321,12 @@
       <c r="H7" s="7">
         <v>12345678</v>
       </c>
-      <c r="I7" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60" t="s">
-        <v>411</v>
+      <c r="I7" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59" t="s">
+        <v>410</v>
       </c>
       <c r="L7" s="44"/>
     </row>
@@ -6344,10 +6338,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>196</v>
@@ -6359,13 +6353,13 @@
         <v>12345678</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60" t="s">
-        <v>411</v>
+      <c r="I8" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -6376,10 +6370,10 @@
         <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>197</v>
@@ -6393,13 +6387,13 @@
       <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="I9" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
-        <v>411</v>
+      <c r="I9" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30">
@@ -6410,10 +6404,10 @@
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>198</v>
@@ -6427,15 +6421,15 @@
       <c r="H10" s="7">
         <v>123</v>
       </c>
-      <c r="I10" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="L10" s="60" t="s">
-        <v>411</v>
+      <c r="I10" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
@@ -6446,10 +6440,10 @@
         <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>196</v>
@@ -6463,13 +6457,13 @@
       <c r="H11" s="7">
         <v>123456798</v>
       </c>
-      <c r="I11" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60" t="s">
-        <v>417</v>
+      <c r="I11" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -6514,88 +6508,88 @@
         <v>17</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="85" t="s">
-        <v>315</v>
+      <c r="G1" s="84" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="120">
-      <c r="A2" s="53" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
+        <v>634</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="85"/>
+    </row>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:7" ht="120">
+      <c r="A4" s="52" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>639</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>642</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="53" t="s">
-        <v>636</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>643</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="87"/>
-    </row>
-    <row r="4" spans="1:7" ht="120">
-      <c r="A4" s="53" t="s">
-        <v>637</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53" t="s">
-        <v>641</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>644</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>422</v>
+      <c r="E4" s="52" t="s">
+        <v>421</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="53" t="s">
-        <v>638</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>645</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>422</v>
+      <c r="E5" s="52" t="s">
+        <v>421</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="87"/>
+      <c r="G5" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6636,104 +6630,104 @@
       <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>653</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="52" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>643</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>654</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="52" t="s">
+        <v>644</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>650</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="52" t="s">
+        <v>645</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="52" t="s">
+        <v>643</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="53" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>646</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="53" t="s">
-        <v>636</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>647</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>658</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="53" t="s">
-        <v>637</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>648</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>659</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="53" t="s">
-        <v>638</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="53" t="s">
-        <v>646</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>676</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="53" t="s">
+      <c r="E7" s="85" t="s">
         <v>649</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="53" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>655</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="53" t="s">
-        <v>650</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="53" t="s">
-        <v>648</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>656</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6775,40 +6769,40 @@
       <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="85" t="s">
-        <v>651</v>
+      <c r="E1" s="84" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="53" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>646</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>675</v>
+      <c r="C2" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="53" t="s">
-        <v>636</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
-        <v>648</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>676</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>675</v>
+      <c r="A3" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52" t="s">
+        <v>643</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -6878,7 +6872,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A2" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>61</v>
@@ -6906,12 +6900,12 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A3" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="22" t="s">
@@ -6937,12 +6931,12 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A4" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="22" t="s">
@@ -6968,12 +6962,12 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A5" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>61</v>
@@ -7001,12 +6995,12 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A6" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
@@ -7032,12 +7026,12 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A7" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="22" t="s">
@@ -7063,12 +7057,12 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="22" t="s">
@@ -7094,12 +7088,12 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A9" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="22" t="s">
@@ -7125,12 +7119,12 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A10" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="22" t="s">
@@ -7156,12 +7150,12 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A11" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="22" t="s">
@@ -7187,12 +7181,12 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="22" t="s">
@@ -7218,12 +7212,12 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="22" t="s">
@@ -7249,12 +7243,12 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22" t="s">
@@ -7283,7 +7277,7 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="22" t="s">
@@ -7312,7 +7306,7 @@
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
@@ -7341,7 +7335,7 @@
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="22" t="s">
@@ -7370,7 +7364,7 @@
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>61</v>
@@ -7401,7 +7395,7 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="22" t="s">
@@ -7430,7 +7424,7 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="22" t="s">
@@ -7456,12 +7450,12 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
@@ -7487,12 +7481,12 @@
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
@@ -7518,12 +7512,12 @@
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
       <c r="A23" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
@@ -7549,12 +7543,12 @@
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="22" t="s">
@@ -7580,12 +7574,12 @@
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
       <c r="A25" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="22" t="s">
@@ -7611,12 +7605,12 @@
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="22" t="s">
@@ -7642,12 +7636,12 @@
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
       <c r="A27" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="22" t="s">
@@ -7673,12 +7667,12 @@
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
@@ -7704,12 +7698,12 @@
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
       <c r="A29" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
@@ -7735,12 +7729,12 @@
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="22" t="s">
@@ -7766,12 +7760,12 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="A31" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="22" t="s">
@@ -7797,12 +7791,12 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="22" t="s">
@@ -7831,7 +7825,7 @@
     </row>
     <row r="33" spans="1:11" ht="60">
       <c r="A33" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22" t="s">
@@ -7860,7 +7854,7 @@
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="22" t="s">
@@ -7889,7 +7883,7 @@
     </row>
     <row r="35" spans="1:11" ht="60">
       <c r="A35" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>61</v>
@@ -7920,7 +7914,7 @@
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="22" t="s">
@@ -7949,7 +7943,7 @@
     </row>
     <row r="37" spans="1:11" ht="60">
       <c r="A37" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="22" t="s">
@@ -7978,7 +7972,7 @@
     </row>
     <row r="38" spans="1:11" ht="60">
       <c r="A38" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="22" t="s">
@@ -8007,7 +8001,7 @@
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="22" t="s">
@@ -8017,7 +8011,7 @@
         <v>95</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>51</v>
@@ -8036,16 +8030,16 @@
     </row>
     <row r="40" spans="1:11" ht="60">
       <c r="A40" s="19" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
@@ -8063,8 +8057,8 @@
         <v>47</v>
       </c>
       <c r="J40" s="24"/>
-      <c r="K40" s="89" t="s">
-        <v>615</v>
+      <c r="K40" s="88" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -8089,14 +8083,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="50"/>
+    <col min="1" max="2" width="9.140625" style="49"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="50" customFormat="1">
+    <row r="1" spans="1:6" s="49" customFormat="1">
       <c r="A1" s="26" t="s">
         <v>84</v>
       </c>
@@ -8113,120 +8107,120 @@
         <v>16</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>657</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>736</v>
+      </c>
+      <c r="F2" s="87"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="E3" s="92" t="s">
+        <v>661</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C4" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="52" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="52" t="s">
+        <v>665</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>666</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="E7" s="92" t="s">
         <v>661</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>662</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>741</v>
-      </c>
-      <c r="F2" s="88"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>663</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>665</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="53" t="s">
-        <v>667</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>668</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
-        <v>738</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="53" t="s">
-        <v>669</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>671</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="53" t="s">
-        <v>670</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>671</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>666</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>0</v>
@@ -8876,7 +8870,7 @@
         <v>97</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -8899,7 +8893,7 @@
         <v>97</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -8921,8 +8915,8 @@
       <c r="F29" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="84" t="s">
-        <v>591</v>
+      <c r="G29" s="83" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8945,7 +8939,7 @@
         <v>97</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8968,7 +8962,7 @@
         <v>97</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -8991,7 +8985,7 @@
         <v>97</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9014,7 +9008,7 @@
         <v>97</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9037,7 +9031,7 @@
         <v>97</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9060,7 +9054,7 @@
         <v>97</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9083,7 +9077,7 @@
         <v>97</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9106,7 +9100,7 @@
         <v>97</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9129,7 +9123,7 @@
         <v>97</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9152,7 +9146,7 @@
         <v>97</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9175,7 +9169,7 @@
         <v>97</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9198,7 +9192,7 @@
         <v>97</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -9221,7 +9215,7 @@
         <v>97</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -9244,7 +9238,7 @@
         <v>97</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9267,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -9290,7 +9284,7 @@
         <v>97</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -9313,7 +9307,7 @@
         <v>97</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -9336,7 +9330,7 @@
         <v>97</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9359,7 +9353,7 @@
         <v>97</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -9382,7 +9376,7 @@
         <v>97</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -9405,7 +9399,7 @@
         <v>97</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9428,7 +9422,7 @@
         <v>97</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9451,7 +9445,7 @@
         <v>97</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -9474,7 +9468,7 @@
         <v>97</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -9497,7 +9491,7 @@
         <v>97</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -9520,7 +9514,7 @@
         <v>97</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9543,7 +9537,7 @@
         <v>97</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9566,7 +9560,7 @@
         <v>97</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9589,7 +9583,7 @@
         <v>97</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9612,7 +9606,7 @@
         <v>97</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -9635,7 +9629,7 @@
         <v>97</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -9658,7 +9652,7 @@
         <v>97</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9681,7 +9675,7 @@
         <v>97</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -9704,7 +9698,7 @@
         <v>97</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -9727,7 +9721,7 @@
         <v>97</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9750,12 +9744,12 @@
         <v>97</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="30" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>75</v>
@@ -9773,12 +9767,12 @@
         <v>97</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="30" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>75</v>
@@ -9796,12 +9790,12 @@
         <v>97</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="30" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>75</v>
@@ -9819,12 +9813,12 @@
         <v>97</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="30" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>75</v>
@@ -9841,13 +9835,13 @@
       <c r="F69" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="90" t="s">
-        <v>700</v>
+      <c r="G69" s="89" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="30" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>75</v>
@@ -9865,12 +9859,12 @@
         <v>97</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="30" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>75</v>
@@ -9888,12 +9882,12 @@
         <v>97</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="30" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>75</v>
@@ -9911,12 +9905,12 @@
         <v>97</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="30" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>75</v>
@@ -9934,12 +9928,12 @@
         <v>97</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="30" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>75</v>
@@ -9957,12 +9951,12 @@
         <v>97</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="30" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>75</v>
@@ -9980,12 +9974,12 @@
         <v>97</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="30" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>75</v>
@@ -10003,12 +9997,12 @@
         <v>97</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="30" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>75</v>
@@ -10022,11 +10016,11 @@
       <c r="E77" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="95" t="s">
-        <v>740</v>
+      <c r="F77" s="94" t="s">
+        <v>735</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -10067,7 +10061,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>74</v>
@@ -10084,20 +10078,20 @@
       <c r="G1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>430</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="66" t="s">
+        <v>431</v>
+      </c>
+      <c r="L1" s="66" t="s">
         <v>432</v>
-      </c>
-      <c r="L1" s="67" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60">
@@ -10105,12 +10099,12 @@
         <v>5</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -10133,19 +10127,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>752</v>
+        <v>748</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>747</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>138</v>
@@ -10161,13 +10155,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>734</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>742</v>
+        <v>729</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>737</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -10185,12 +10179,12 @@
         <v>140</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="75" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>141</v>
       </c>
       <c r="E5" s="30"/>
@@ -10209,12 +10203,12 @@
         <v>169</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="74" t="s">
         <v>163</v>
       </c>
       <c r="E6" s="24"/>
@@ -10230,16 +10224,16 @@
     </row>
     <row r="7" spans="1:12" ht="135">
       <c r="A7" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>734</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>742</v>
+        <v>729</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>737</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -10248,30 +10242,30 @@
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="24" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>138</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75">
       <c r="A8" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="D8" s="75" t="s">
         <v>487</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>486</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -10280,7 +10274,7 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="24"/>
@@ -10288,16 +10282,16 @@
     </row>
     <row r="9" spans="1:12" ht="285">
       <c r="A9" s="30" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>748</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>747</v>
+        <v>743</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>742</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -10306,13 +10300,13 @@
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="24" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="L9" s="24"/>
     </row>
@@ -10608,7 +10602,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>3</v>
@@ -10620,13 +10614,13 @@
         <v>75</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>38</v>
@@ -10648,7 +10642,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -10677,13 +10671,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="90">
@@ -10693,17 +10687,17 @@
       <c r="B2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>744</v>
-      </c>
-      <c r="E2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
+      <c r="D2" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="43" t="s">
@@ -10712,35 +10706,35 @@
       <c r="B3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>424</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>717</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="90">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="43"/>
-      <c r="C4" s="68" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>425</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="71" t="s">
-        <v>674</v>
+      <c r="C4" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
@@ -10750,17 +10744,17 @@
       <c r="B5" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>429</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="E5" s="68" t="s">
+      <c r="C5" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="71"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11127,27 +11121,27 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="73" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="92" t="s">
+      <c r="H15" s="52"/>
+      <c r="I15" s="91" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11494,8 +11488,8 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11504,12 +11498,12 @@
     <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19.7109375" style="4" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" style="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.7109375" style="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="20.7109375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="20.7109375" style="48" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="4" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" style="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.85546875" style="48" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -11574,7 +11568,7 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>631</v>
+        <v>752</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>61</v>
@@ -11603,13 +11597,13 @@
       <c r="J2" s="45">
         <v>3</v>
       </c>
-      <c r="K2" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="47">
+      <c r="K2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="46">
         <v>3</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="47">
         <v>0</v>
       </c>
       <c r="N2" s="7" t="b">
@@ -11630,22 +11624,20 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>61</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="B3" s="43"/>
       <c r="C3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="G3" s="44">
         <v>300389094</v>
@@ -11660,12 +11652,12 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L3" s="47">
+        <v>7</v>
+      </c>
+      <c r="L3" s="46">
         <v>2</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="47">
         <v>0</v>
       </c>
       <c r="N3" s="7" t="b">
@@ -11686,16 +11678,14 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>61</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="B4" s="43"/>
       <c r="C4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>300</v>
@@ -11716,12 +11706,12 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="L4" s="47">
+        <v>310</v>
+      </c>
+      <c r="L4" s="46">
         <v>1</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="47">
         <v>0</v>
       </c>
       <c r="N4" s="7" t="b">
@@ -11742,19 +11732,17 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>61</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="B5" s="43"/>
       <c r="C5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>302</v>
@@ -11774,10 +11762,10 @@
       <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="46">
         <v>0</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="47">
         <v>0</v>
       </c>
       <c r="N5" s="7" t="b">
@@ -11862,33 +11850,33 @@
         <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>318</v>
-      </c>
       <c r="D2" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>199</v>
@@ -11899,175 +11887,175 @@
       <c r="G2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+        <v>363</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="30">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>202</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="I5" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="55"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>203</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G6" s="27"/>
-      <c r="H6" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55" t="s">
+      <c r="H6" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>204</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="H7" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="H8" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12114,82 +12102,82 @@
         <v>8</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="63" t="s">
+      <c r="F2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="77" t="s">
-        <v>419</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>328</v>
+      <c r="E4" s="62" t="s">
+        <v>327</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -12218,129 +12206,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="50"/>
+    <col min="1" max="2" width="9.140625" style="49"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="50" customFormat="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:5" s="49" customFormat="1">
+      <c r="A1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="D2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="D3" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105">
+      <c r="A4" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="105">
-      <c r="A4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="D4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="59" t="s">
+      <c r="C5" s="5" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="58" t="s">
+      <c r="D5" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="D6" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="58" t="s">
         <v>352</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -12399,87 +12387,87 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="53" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>266</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="53" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>265</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>333</v>
+      <c r="E3" s="52" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="53" t="s">
-        <v>532</v>
-      </c>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>264</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="53" t="s">
-        <v>333</v>
+      <c r="E4" s="52" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>263</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>333</v>
+      <c r="E5" s="52" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="53" t="s">
-        <v>534</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>262</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>48</v>
       </c>
     </row>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="230430" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="230430" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="50" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5213" uniqueCount="988">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -4242,7 +4242,7 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5001,8 +5001,8 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16905,7 +16905,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B46"/>
+      <selection activeCell="K46" sqref="A46:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18418,8 +18418,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A34" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19743,10 +19743,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21055,6 +21055,37 @@
       <c r="K40" s="117" t="s">
         <v>514</v>
       </c>
+    </row>
+    <row r="41" spans="1:11" ht="75">
+      <c r="A41" s="95" t="s">
+        <v>728</v>
+      </c>
+      <c r="B41" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="130" t="s">
+        <v>983</v>
+      </c>
+      <c r="D41" s="130" t="s">
+        <v>980</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="F41" s="130" t="s">
+        <v>972</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="87"/>
+      <c r="K41" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
